--- a/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3593,9 +3593,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3641,9 +3638,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3653,12 +3647,6 @@
     <t>;Create some devices.</t>
   </si>
   <si>
-    <t>10.146.85.11</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_11"</t>
-  </si>
-  <si>
     <t>;Export device file.</t>
   </si>
   <si>
@@ -3693,9 +3681,6 @@
   </si>
   <si>
     <t>;Check Server Log</t>
-  </si>
-  <si>
-    <t>ABC GXT UPS</t>
   </si>
   <si>
     <t>;Import devices from the same flat file, to verify the exsited devices can not be imported again.</t>
@@ -3727,12 +3712,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4678,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4751,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4770,13 +4769,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4786,13 +4785,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4811,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4842,7 +4841,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4867,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4892,7 +4891,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>577</v>
@@ -4902,22 +4901,22 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4931,7 +4930,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -4941,22 +4940,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -4972,7 +4971,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>756</v>
@@ -4997,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5020,7 +5019,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5049,7 +5048,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -5078,10 +5077,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>578</v>
@@ -5107,10 +5106,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>578</v>
@@ -5119,7 +5118,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5138,10 +5137,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>89</v>
@@ -5167,7 +5166,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>594</v>
@@ -5179,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5198,7 +5197,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>594</v>
@@ -5210,10 +5209,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J17" s="5" t="b">
         <v>1</v>
@@ -5233,7 +5232,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>594</v>
@@ -5264,7 +5263,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>594</v>
@@ -5293,7 +5292,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>599</v>
@@ -5322,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -5341,10 +5340,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>578</v>
@@ -5366,10 +5365,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>578</v>
@@ -5378,7 +5377,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5393,10 +5392,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>184</v>
@@ -5418,7 +5417,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>585</v>
@@ -5443,7 +5442,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5462,10 +5461,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>183</v>
@@ -5487,7 +5486,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>602</v>
@@ -5512,7 +5511,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>602</v>
@@ -5537,7 +5536,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>602</v>
@@ -5549,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5564,7 +5563,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>602</v>
@@ -5576,10 +5575,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J31" s="5" t="b">
         <v>1</v>
@@ -5595,7 +5594,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>602</v>
@@ -5620,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>602</v>
@@ -5645,7 +5644,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>599</v>
@@ -5670,7 +5669,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>599</v>
@@ -5695,7 +5694,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>602</v>
@@ -5724,7 +5723,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>602</v>
@@ -5749,7 +5748,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>518</v>
@@ -5761,13 +5760,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5780,7 +5779,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>518</v>
@@ -5805,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>602</v>
@@ -5834,7 +5833,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>602</v>
@@ -5859,7 +5858,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5878,7 +5877,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>602</v>
@@ -5903,7 +5902,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>602</v>
@@ -5928,7 +5927,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>622</v>
@@ -5953,7 +5952,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>622</v>
@@ -5978,7 +5977,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="5"/>
@@ -5997,10 +5996,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>578</v>
@@ -6009,7 +6008,7 @@
         <v>59</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6024,10 +6023,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>578</v>
@@ -6036,7 +6035,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6051,10 +6050,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>99</v>
@@ -6076,7 +6075,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -6095,7 +6094,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -6114,7 +6113,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="5"/>
@@ -6133,7 +6132,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="5"/>
@@ -6152,7 +6151,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>19</v>
@@ -6176,7 +6175,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>19</v>
@@ -6200,10 +6199,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>183</v>
@@ -6225,7 +6224,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>602</v>
@@ -6250,7 +6249,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>602</v>
@@ -6275,7 +6274,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>602</v>
@@ -6287,7 +6286,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6302,7 +6301,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>602</v>
@@ -6314,10 +6313,10 @@
         <v>7</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J61" s="5" t="b">
         <v>1</v>
@@ -6333,7 +6332,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>602</v>
@@ -6358,7 +6357,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>602</v>
@@ -6383,7 +6382,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>599</v>
@@ -6408,7 +6407,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>599</v>
@@ -6433,7 +6432,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>602</v>
@@ -6445,10 +6444,10 @@
         <v>7</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="J66" s="5" t="b">
         <v>1</v>
@@ -6464,7 +6463,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>602</v>
@@ -6489,10 +6488,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>99</v>
@@ -6514,7 +6513,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -6532,7 +6531,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>19</v>
@@ -6556,7 +6555,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>19</v>
@@ -6580,10 +6579,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>578</v>
@@ -6608,10 +6607,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>184</v>
@@ -6632,7 +6631,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>585</v>
@@ -6656,10 +6655,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>578</v>
@@ -6684,10 +6683,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>184</v>
@@ -6708,7 +6707,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>585</v>
@@ -6732,10 +6731,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>99</v>
@@ -28650,22 +28649,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="-4410" yWindow="180" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1333_AddDevicesFromFlatFile.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7466" uniqueCount="832">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3716,22 +3716,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4677,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4860,7 +4864,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41075</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4904,10 +4908,10 @@
         <v>796</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
@@ -4923,9 +4927,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>827</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4943,10 +4947,10 @@
         <v>796</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>797</v>
@@ -4962,11 +4966,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4990,8 +4992,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5011,10 +5017,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5041,7 +5045,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5070,7 +5074,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5099,7 +5103,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5130,7 +5134,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5159,7 +5163,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5189,10 +5193,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5226,7 +5230,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5253,11 +5257,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5285,9 +5287,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5336,6 +5340,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>824</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -6008,7 +6016,7 @@
         <v>59</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6035,7 +6043,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6432,7 +6440,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>602</v>
